--- a/Project 1/hw1_table.xlsx
+++ b/Project 1/hw1_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nivelnola\Documents\Cooper Union Files\Y3-S2\ECE-413 Music &amp; Engineering\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF2DFC6-3C12-4EA7-943C-59F6A700DE79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD28342-183C-4449-B569-FAA1A785F754}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -258,32 +258,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,8 +629,8 @@
   </sheetPr>
   <dimension ref="A1:XFD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,24 +639,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -750,7 +750,7 @@
       <c r="F4" s="2">
         <v>220</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="11">
         <v>220</v>
       </c>
       <c r="H4" s="2">
@@ -925,7 +925,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <f>G4*3/2</f>
         <v>330</v>
       </c>
@@ -1038,24 +1038,24 @@
       <c r="P15" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1112,23 +1112,23 @@
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="17">
         <v>440</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -1421,6 +1421,11 @@
     <row r="48" ht="29.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
     <mergeCell ref="B27:P27"/>
     <mergeCell ref="B28:P28"/>
     <mergeCell ref="B29:P29"/>
@@ -1430,11 +1435,6 @@
     <mergeCell ref="B24:P24"/>
     <mergeCell ref="B25:P25"/>
     <mergeCell ref="B26:P26"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>

--- a/Project 1/hw1_table.xlsx
+++ b/Project 1/hw1_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nivelnola\Documents\Cooper Union Files\Y3-S2\ECE-413 Music &amp; Engineering\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD28342-183C-4449-B569-FAA1A785F754}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF675F-EFB6-4D5C-BAC5-D60B1617CBAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="54">
   <si>
     <t>C</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Cb</t>
   </si>
   <si>
-    <t>A#/Bb</t>
-  </si>
-  <si>
     <t>C#/Db</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Just Intonation Major Scales by Key</t>
-  </si>
-  <si>
     <t>A#/Eb</t>
   </si>
   <si>
@@ -115,14 +109,99 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>B#</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>E#</t>
+  </si>
+  <si>
+    <t>Fb</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>Just Intonation Major Scale Frequencies (Hz) by Key</t>
+  </si>
+  <si>
+    <t>Unison</t>
+  </si>
+  <si>
+    <t>Semitone</t>
+  </si>
+  <si>
+    <t>Minor tone</t>
+  </si>
+  <si>
+    <t>Major tone</t>
+  </si>
+  <si>
+    <t>Minor third</t>
+  </si>
+  <si>
+    <t>Perfect fourth</t>
+  </si>
+  <si>
+    <t>Major third</t>
+  </si>
+  <si>
+    <t>Augmented fourth</t>
+  </si>
+  <si>
+    <t>Diminished fifth</t>
+  </si>
+  <si>
+    <t>Perfect fifth</t>
+  </si>
+  <si>
+    <t>Minor sixth</t>
+  </si>
+  <si>
+    <t>Major sixth</t>
+  </si>
+  <si>
+    <t>Harmonic minor seventh</t>
+  </si>
+  <si>
+    <t>Grave minor seventh</t>
+  </si>
+  <si>
+    <t>Minor seventh</t>
+  </si>
+  <si>
+    <t>Major seventh</t>
+  </si>
+  <si>
+    <t>Octave</t>
+  </si>
+  <si>
+    <t>semitone</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>minor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -162,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,15 +262,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -235,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,9 +315,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -261,7 +328,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -270,20 +350,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,40 +708,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD48"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="20820" topLeftCell="Y1"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-    </row>
-    <row r="2" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -707,8 +790,53 @@
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -717,84 +845,119 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <f>G4*15/16</f>
-        <v>206.25</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="9">
+        <f>(B4/S4)</f>
+        <v>412.5</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="23">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="24">
+        <v>440</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="20">
+        <f>16/15</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="AG4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>220</v>
-      </c>
-      <c r="C4" s="2">
-        <v>220</v>
-      </c>
-      <c r="D4" s="2">
-        <v>220</v>
-      </c>
-      <c r="E4" s="2">
-        <v>220</v>
-      </c>
-      <c r="F4" s="2">
-        <v>220</v>
-      </c>
-      <c r="G4" s="11">
-        <v>220</v>
-      </c>
-      <c r="H4" s="2">
-        <v>220</v>
-      </c>
-      <c r="I4" s="2">
-        <v>220</v>
-      </c>
-      <c r="J4" s="2">
-        <v>220</v>
-      </c>
-      <c r="K4" s="2">
-        <v>220</v>
-      </c>
-      <c r="L4" s="2">
-        <v>220</v>
-      </c>
-      <c r="M4" s="2">
-        <v>220</v>
-      </c>
-      <c r="N4" s="2">
-        <v>220</v>
-      </c>
-      <c r="O4" s="2">
-        <v>220</v>
-      </c>
-      <c r="P4" s="2">
-        <v>220</v>
-      </c>
-      <c r="XFD4" s="2"/>
-    </row>
-    <row r="5" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <f>E20*S8/2</f>
+        <v>458.33333333333337</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <f>G4*16/15</f>
-        <v>234.66666666666666</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -802,22 +965,29 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="9">
+        <f>(B4/S18)*2</f>
+        <v>469.33333333333331</v>
+      </c>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="20">
+        <f>10/9</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f>G4*9/8</f>
-        <v>247.5</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -827,88 +997,282 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="23">
+        <f>9/8</f>
+        <v>1.125</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B10*S18/2</f>
+        <v>495</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C13*S14/2</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="D7" s="2">
+        <f>D16*S12/2</f>
+        <v>495</v>
+      </c>
+      <c r="E7" s="2">
+        <f>E20*S9/2</f>
+        <v>488.88888888888891</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F22*S8/2</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="9">
+        <f>(B4/S17)*2</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="20">
+        <f>6/5</f>
+        <v>1.2</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="23">
+        <f>5/4</f>
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <f>G4*6/5</f>
-        <v>264</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <f>G4*5/4</f>
-        <v>275</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="AH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9">
+        <f>(B4/S15)*2</f>
+        <v>502.85714285714283</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="23">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <f>G4*4/3</f>
-        <v>293.33333333333331</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="AA9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <f>(B4/S14)*2</f>
+        <v>528</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <f>G4*7/5</f>
-        <v>308</v>
-      </c>
+      <c r="F10" s="3">
+        <f>F22*S9/2</f>
+        <v>521.48148148148141</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -918,69 +1282,152 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="20">
+        <f>45/32</f>
+        <v>1.40625</v>
+      </c>
+      <c r="AD10" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10">
-        <f>G4*3/2</f>
-        <v>330</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3">
+        <f>C13*S18/2</f>
+        <v>550</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D16*S14/2</f>
+        <v>550</v>
+      </c>
+      <c r="E11" s="3">
+        <f>E20*S12/2</f>
+        <v>550</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f>G4*3/2</f>
-        <v>330</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="9">
+        <f>(B4/S13)*2</f>
+        <v>550</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="20">
+        <f>64/45</f>
+        <v>1.4222222222222223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <f>G4*8/5</f>
-        <v>352</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="9">
+        <f>(B4/S13)*2</f>
+        <v>550</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="23">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B10*S6</f>
+        <v>594</v>
+      </c>
+      <c r="C13" s="9">
+        <f>(B4/S12)*2</f>
+        <v>586.66666666666663</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <f>G4*5/3</f>
-        <v>366.66666666666669</v>
-      </c>
+      <c r="F13" s="3">
+        <f>F22*S12/2</f>
+        <v>586.66666666666663</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -990,20 +1437,36 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="20">
+        <f>8/5</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3">
+        <f>D16*S18/2</f>
+        <v>618.75</v>
+      </c>
+      <c r="E14" s="3">
+        <f>E20*S14/2</f>
+        <v>611.1111111111112</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <f>G4*16/9</f>
-        <v>391.11111111111109</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1013,299 +1476,510 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16 16384:16384" x14ac:dyDescent="0.3">
+      <c r="R14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="23">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <f>G4*15/8</f>
-        <v>412.5</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="9">
+        <f>(B4/S10)*2</f>
+        <v>625.77777777777783</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="20">
+        <f>7/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="AI15" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B10*S8</f>
+        <v>660</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C13*S6</f>
+        <v>660</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(B4/S9)*2</f>
+        <v>660</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f>F22*S14/2</f>
+        <v>651.85185185185185</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="20">
+        <f>16/9</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3">
+        <f>E20*S18/2</f>
+        <v>687.5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="20">
+        <f>9/5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" s="23">
+        <f>15/8</f>
+        <v>1.875</v>
+      </c>
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="AB18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="AD18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="AE18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="AF18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B10*S9</f>
+        <v>704</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="9">
+        <f>(B4/S8)*2</f>
+        <v>704</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="23">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="Y19" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <f>C13*S8</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="D20" s="3">
+        <f>D16*S6</f>
+        <v>742.5</v>
+      </c>
+      <c r="E20" s="9">
+        <f>(B4/S7)*2</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="F20" s="3">
+        <f>F22*S18/2</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="9">
+        <f>(B4/S7)*2</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B10*S12</f>
+        <v>792</v>
+      </c>
+      <c r="C22" s="3">
+        <f>C13*S9</f>
+        <v>782.22222222222217</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="9">
+        <f>(B4/S6)*2</f>
+        <v>782.22222222222217</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f>D16*S8</f>
+        <v>825</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E20*S6</f>
+        <v>825</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="Q26" s="19"/>
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
         <v>440</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="19"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="12">
-        <f>B19*(2^(1/12))</f>
-        <v>466.16376151808993</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
-        <f t="shared" ref="B21:B30" si="0">B20*(2^(1/12))</f>
-        <v>493.88330125612413</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="12">
-        <f t="shared" si="0"/>
-        <v>523.25113060119736</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="12">
-        <f t="shared" si="0"/>
-        <v>554.36526195374427</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>587.32953583481526</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>622.25396744416196</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>659.25511382574007</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>698.456462866008</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1321,120 +1995,313 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12">
+        <v>23</v>
+      </c>
+      <c r="B28" s="15">
+        <f>B27*(2^(1/12))</f>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" ref="B29:B38" si="0">B28*(2^(1/12))</f>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="17"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="0"/>
+        <v>523.25113060119736</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="0"/>
+        <v>554.36526195374427</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="17"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="0"/>
+        <v>587.32953583481526</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="17"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="0"/>
+        <v>622.25396744416196</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="17"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="0"/>
+        <v>659.25511382574007</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="0"/>
+        <v>698.456462866008</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="17"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="15">
         <f t="shared" si="0"/>
         <v>739.98884542326903</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B37" s="15">
         <f t="shared" si="0"/>
         <v>783.99087196349888</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="15">
         <f t="shared" si="0"/>
         <v>830.6093951598906</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="29.55" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="17"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="29.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:P37"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B33:P33"/>
+    <mergeCell ref="B34:P34"/>
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="A25:P25"/>
     <mergeCell ref="B27:P27"/>
     <mergeCell ref="B28:P28"/>
     <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>

--- a/Project 1/hw1_table.xlsx
+++ b/Project 1/hw1_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nivelnola\Documents\Cooper Union Files\Y3-S2\ECE-413 Music &amp; Engineering\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF675F-EFB6-4D5C-BAC5-D60B1617CBAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DDB5F-5DDE-46F5-B221-E7A32089754B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,13 +711,12 @@
   <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="20820" topLeftCell="Y1"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -848,23 +847,35 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2">
+        <f>J12*S12/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="K3" s="2">
+        <f>K15*S9/2</f>
+        <v>417.18518518518522</v>
+      </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <f>M21*S6/2</f>
+        <v>412.5</v>
+      </c>
       <c r="N3" s="9">
         <f>(B4/S4)</f>
         <v>412.5</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2">
+        <f>P9*S14/2</f>
+        <v>419.04761904761904</v>
+      </c>
       <c r="R3" s="22" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="23">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="22" t="s">
         <v>51</v>
       </c>
       <c r="U3" t="s">
@@ -941,6 +952,7 @@
         <f>16/15</f>
         <v>1.0666666666666667</v>
       </c>
+      <c r="T4" s="22"/>
       <c r="AG4" s="22" t="s">
         <v>5</v>
       </c>
@@ -958,8 +970,14 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2">
+        <f>H7*S18/2</f>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="I5" s="2">
+        <f>I11*S14/2</f>
+        <v>458.33333333333337</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -977,6 +995,7 @@
         <f>10/9</f>
         <v>1.1111111111111112</v>
       </c>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -990,13 +1009,31 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="J6" s="2">
+        <f>J12*S14/2</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="K6" s="2">
+        <f>K15*S12/2</f>
+        <v>469.33333333333337</v>
+      </c>
+      <c r="L6" s="2">
+        <f>L19*S9/2</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="M6" s="2">
+        <f>M21*S8/2</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="N6" s="2">
+        <f>N3*S6</f>
+        <v>464.0625</v>
+      </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <f>P9*S18/2</f>
+        <v>471.42857142857139</v>
+      </c>
       <c r="R6" s="22" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1041,7 @@
         <f>9/8</f>
         <v>1.125</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="22" t="s">
         <v>52</v>
       </c>
       <c r="U6" t="s">
@@ -1077,7 +1114,10 @@
         <f>F22*S8/2</f>
         <v>488.88888888888886</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <f>B4*S6</f>
+        <v>495</v>
+      </c>
       <c r="H7" s="9">
         <f>(B4/S17)*2</f>
         <v>488.88888888888886</v>
@@ -1097,6 +1137,7 @@
         <f>6/5</f>
         <v>1.2</v>
       </c>
+      <c r="T7" s="22"/>
       <c r="X7" s="22" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1156,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <f>I11*S18/2</f>
+        <v>515.625</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1130,7 +1174,7 @@
         <f>5/4</f>
         <v>1.25</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="22" t="s">
         <v>53</v>
       </c>
       <c r="U8" t="s">
@@ -1194,7 +1238,10 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <f>M21*S9/2</f>
+        <v>488.88888888888891</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9">
@@ -1208,7 +1255,7 @@
         <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="22" t="s">
         <v>50</v>
       </c>
       <c r="U9" t="s">
@@ -1275,12 +1322,27 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="3">
+        <f>J12*S18/2</f>
+        <v>515.625</v>
+      </c>
+      <c r="K10" s="3">
+        <f>K15*S14/2</f>
+        <v>521.48148148148152</v>
+      </c>
+      <c r="L10" s="3">
+        <f>L19*S12/2</f>
+        <v>528</v>
+      </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3">
+        <f>N3*S8</f>
+        <v>515.625</v>
+      </c>
+      <c r="O10" s="3">
+        <f>O5*S6</f>
+        <v>528</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="R10" t="s">
         <v>40</v>
@@ -1289,6 +1351,7 @@
         <f>45/32</f>
         <v>1.40625</v>
       </c>
+      <c r="T10" s="22"/>
       <c r="AD10" s="22" t="s">
         <v>5</v>
       </c>
@@ -1311,8 +1374,14 @@
         <v>550</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="2">
+        <f>B4*S8</f>
+        <v>550</v>
+      </c>
+      <c r="H11" s="3">
+        <f>H7*S6</f>
+        <v>550</v>
+      </c>
       <c r="I11" s="9">
         <f>(B4/S13)*2</f>
         <v>550</v>
@@ -1330,6 +1399,7 @@
         <f>64/45</f>
         <v>1.4222222222222223</v>
       </c>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1349,10 +1419,19 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="3">
+        <f>M21*S12/2</f>
+        <v>550</v>
+      </c>
+      <c r="N12" s="3">
+        <f>N3*S9</f>
+        <v>550</v>
+      </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3">
+        <f>P9*S6</f>
+        <v>565.71428571428567</v>
+      </c>
       <c r="R12" s="22" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1439,7 @@
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="22" t="s">
         <v>52</v>
       </c>
       <c r="U12" t="s">
@@ -1427,15 +1506,27 @@
         <f>F22*S12/2</f>
         <v>586.66666666666663</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <f>B4*S9</f>
+        <v>586.66666666666663</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3">
+        <f>K15*S18/2</f>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="L13" s="3">
+        <f>L19*S14/2</f>
+        <v>586.66666666666674</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <f>O5*S8</f>
+        <v>586.66666666666663</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="R13" t="s">
         <v>43</v>
@@ -1444,6 +1535,7 @@
         <f>8/5</f>
         <v>1.6</v>
       </c>
+      <c r="T13" s="22"/>
       <c r="AB13" s="22" t="s">
         <v>5</v>
       </c>
@@ -1467,8 +1559,14 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3">
+        <f>H7*S8</f>
+        <v>611.11111111111109</v>
+      </c>
+      <c r="I14" s="3">
+        <f>I11*S6</f>
+        <v>618.75</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1483,7 +1581,7 @@
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="22" t="s">
         <v>53</v>
       </c>
       <c r="U14" s="22" t="s">
@@ -1544,16 +1642,31 @@
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <f>J12*S6</f>
+        <v>618.75</v>
+      </c>
       <c r="K15" s="9">
         <f>(B4/S10)*2</f>
         <v>625.77777777777783</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="3">
+        <f>M21*S14/2</f>
+        <v>611.1111111111112</v>
+      </c>
+      <c r="N15" s="3">
+        <f>N3*S12</f>
+        <v>618.75</v>
+      </c>
+      <c r="O15" s="3">
+        <f>O5*S9</f>
+        <v>625.77777777777771</v>
+      </c>
+      <c r="P15" s="3">
+        <f>P9*S8</f>
+        <v>628.57142857142856</v>
+      </c>
       <c r="R15" t="s">
         <v>45</v>
       </c>
@@ -1561,6 +1674,7 @@
         <f>7/4</f>
         <v>1.75</v>
       </c>
+      <c r="T15" s="22"/>
       <c r="AI15" s="22" t="s">
         <v>5</v>
       </c>
@@ -1586,12 +1700,21 @@
         <f>F22*S14/2</f>
         <v>651.85185185185185</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="2">
+        <f>B4*S12</f>
+        <v>660</v>
+      </c>
+      <c r="H16" s="3">
+        <f>H7*S9</f>
+        <v>651.85185185185173</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <f>L19*S18/2</f>
+        <v>660</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1603,6 +1726,7 @@
         <f>16/9</f>
         <v>1.7777777777777777</v>
       </c>
+      <c r="T16" s="22"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1618,7 +1742,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <f>I11*S8</f>
+        <v>687.5</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1633,6 +1760,7 @@
         <f>9/5</f>
         <v>1.8</v>
       </c>
+      <c r="T17" s="22"/>
       <c r="AA17" s="22" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1783,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="3">
+        <f>P9*S9</f>
+        <v>670.47619047619037</v>
+      </c>
       <c r="R18" s="22" t="s">
         <v>48</v>
       </c>
@@ -1663,7 +1794,7 @@
         <f>15/8</f>
         <v>1.875</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="22" t="s">
         <v>52</v>
       </c>
       <c r="U18" t="s">
@@ -1727,15 +1858,30 @@
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3">
+        <f>J12*S8</f>
+        <v>687.5</v>
+      </c>
+      <c r="K19" s="3">
+        <f>K15*S6</f>
+        <v>704</v>
+      </c>
       <c r="L19" s="9">
         <f>(B4/S8)*2</f>
         <v>704</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="M19" s="3">
+        <f>M21*S18/2</f>
+        <v>687.5</v>
+      </c>
+      <c r="N19" s="3">
+        <f>N3*S14</f>
+        <v>687.5</v>
+      </c>
+      <c r="O19" s="3">
+        <f>O5*S12</f>
+        <v>704</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="R19" s="22" t="s">
         <v>49</v>
@@ -1743,7 +1889,7 @@
       <c r="S19" s="23">
         <v>2</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="22" t="s">
         <v>50</v>
       </c>
       <c r="U19" t="s">
@@ -1762,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="Z19" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AA19" t="s">
         <v>6</v>
@@ -1813,9 +1959,18 @@
         <f>F22*S18/2</f>
         <v>733.33333333333326</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="3">
+        <f>B4*S14</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="H20" s="3">
+        <f>H7*S12</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="I20" s="3">
+        <f>I11*S9</f>
+        <v>733.33333333333326</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1836,7 +1991,10 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <f>J12*S9</f>
+        <v>733.33333333333326</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="9">
@@ -1845,7 +2003,10 @@
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="3">
+        <f>P9*S12</f>
+        <v>754.28571428571422</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1869,11 +2030,23 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3">
+        <f>K15*S8</f>
+        <v>782.22222222222229</v>
+      </c>
+      <c r="L22" s="3">
+        <f>L19*S6</f>
+        <v>792</v>
+      </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3">
+        <f>N3*S18</f>
+        <v>773.4375</v>
+      </c>
+      <c r="O22" s="3">
+        <f>O5*S14</f>
+        <v>782.22222222222217</v>
+      </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -1891,9 +2064,18 @@
         <v>825</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="3">
+        <f>B4*S18</f>
+        <v>825</v>
+      </c>
+      <c r="H23" s="3">
+        <f>H7*S14</f>
+        <v>814.81481481481478</v>
+      </c>
+      <c r="I23" s="3">
+        <f>I11*S12</f>
+        <v>825</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>

--- a/Project 1/hw1_table.xlsx
+++ b/Project 1/hw1_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nivelnola\Documents\Cooper Union Files\Y3-S2\ECE-413 Music &amp; Engineering\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DDB5F-5DDE-46F5-B221-E7A32089754B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995AE601-2017-44FF-8210-C0204F269C8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="55">
   <si>
     <t>C</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
   </si>
 </sst>
 </file>
@@ -305,15 +308,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -325,8 +322,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,23 +350,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +357,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,10 +715,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,28 +727,28 @@
     <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -789,6 +796,9 @@
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
       <c r="U2" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,1278 +844,2125 @@
       <c r="AI2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
+      <c r="B3" s="25">
+        <f>B10*S13/2</f>
+        <v>422.40000000000003</v>
+      </c>
+      <c r="C3" s="25">
+        <f>C13*S11/2</f>
+        <v>417.18518518518516</v>
+      </c>
+      <c r="D3" s="25">
+        <f>D23/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="E3" s="25">
+        <f>E20*S6/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="F3" s="25">
+        <f>F22*S5/2</f>
+        <v>434.5679012345679</v>
+      </c>
+      <c r="G3" s="25">
+        <f>B4*S18/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="H3" s="25">
+        <f>H7*S16/2</f>
+        <v>434.56790123456784</v>
+      </c>
+      <c r="I3" s="25">
+        <f>I23/2</f>
+        <v>412.5</v>
+      </c>
+      <c r="J3" s="25">
         <f>J12*S12/2</f>
         <v>412.5</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="25">
         <f>K15*S9/2</f>
         <v>417.18518518518522</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="L3" s="25">
+        <f>L19*S7/2</f>
+        <v>422.4</v>
+      </c>
+      <c r="M3" s="25">
         <f>M21*S6/2</f>
         <v>412.5</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="26">
         <f>(B4/S4)</f>
         <v>412.5</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
+      <c r="O3" s="25">
+        <f>O5*S17/2</f>
+        <v>422.4</v>
+      </c>
+      <c r="P3" s="25">
         <f>P9*S14/2</f>
         <v>419.04761904761904</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="U3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="19">
         <v>440</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
-      <c r="R4" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="R4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="23">
         <f>16/15</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="AG4" s="22" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="B5" s="25">
+        <f>B10*S15/2</f>
+        <v>462</v>
+      </c>
+      <c r="C5" s="25">
+        <f>C6</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="D5" s="25">
+        <f>D16*S10/2</f>
+        <v>464.0625</v>
+      </c>
+      <c r="E5" s="25">
         <f>E20*S8/2</f>
         <v>458.33333333333337</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="F5" s="25">
+        <f>F22*S7/2</f>
+        <v>469.33333333333326</v>
+      </c>
+      <c r="G5" s="25">
+        <f>B4*S4</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="H5" s="25">
         <f>H7*S18/2</f>
         <v>458.33333333333331</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="25">
         <f>I11*S14/2</f>
         <v>458.33333333333337</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="9">
+      <c r="J5" s="25">
+        <f>J6</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="K5" s="25">
+        <f>K15*S11/2</f>
+        <v>444.99753086419759</v>
+      </c>
+      <c r="L5" s="25">
+        <f>L6</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="M5" s="25">
+        <f>M6</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="N5" s="25">
+        <f>N3*S5</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="O5" s="25">
         <f>(B4/S18)*2</f>
         <v>469.33333333333331</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="R5" t="s">
+      <c r="P5" s="25">
+        <f>P9*S16/2</f>
+        <v>446.98412698412693</v>
+      </c>
+      <c r="R5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="23">
         <f>10/9</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="T5" s="9"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="B6" s="25">
+        <f>B10*S17/2</f>
+        <v>475.2</v>
+      </c>
+      <c r="C6" s="25">
+        <f>C13*S13/2</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="D6" s="25">
+        <f>D16*S11/2</f>
+        <v>469.33333333333337</v>
+      </c>
+      <c r="E6" s="25">
+        <f>E5</f>
+        <v>458.33333333333337</v>
+      </c>
+      <c r="F6" s="25">
+        <f>F5</f>
+        <v>469.33333333333326</v>
+      </c>
+      <c r="G6" s="25">
+        <f>B4*S5</f>
+        <v>488.88888888888891</v>
+      </c>
+      <c r="H6" s="25">
+        <f>H5</f>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="I6" s="25">
+        <f>I11*S16/2</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="J6" s="25">
         <f>J12*S14/2</f>
         <v>458.33333333333337</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="25">
         <f>K15*S12/2</f>
         <v>469.33333333333337</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="25">
         <f>L19*S9/2</f>
         <v>469.33333333333331</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="25">
         <f>M21*S8/2</f>
         <v>458.33333333333337</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="25">
         <f>N3*S6</f>
         <v>464.0625</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="O6" s="26">
+        <f>O5</f>
+        <v>469.33333333333331</v>
+      </c>
+      <c r="P6" s="25">
         <f>P9*S18/2</f>
         <v>471.42857142857139</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="10">
         <f>9/8</f>
         <v>1.125</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="25">
         <f>B10*S18/2</f>
         <v>495</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="25">
         <f>C13*S14/2</f>
         <v>488.88888888888886</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="25">
         <f>D16*S12/2</f>
         <v>495</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="25">
         <f>E20*S9/2</f>
         <v>488.88888888888891</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="25">
         <f>F22*S8/2</f>
         <v>488.88888888888886</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="25">
         <f>B4*S6</f>
         <v>495</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="26">
         <f>(B4/S17)*2</f>
         <v>488.88888888888886</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="R7" t="s">
+      <c r="I7" s="25">
+        <f>I11*S17/2</f>
+        <v>495</v>
+      </c>
+      <c r="J7" s="25">
+        <f>J12*S15/2</f>
+        <v>481.25</v>
+      </c>
+      <c r="K7" s="25">
+        <f>K15*S13/2</f>
+        <v>500.62222222222226</v>
+      </c>
+      <c r="L7" s="25">
+        <f>L19*S10/2</f>
+        <v>495</v>
+      </c>
+      <c r="M7" s="25">
+        <f>M9</f>
+        <v>488.88888888888891</v>
+      </c>
+      <c r="N7" s="25">
+        <f>N3*S7</f>
+        <v>495</v>
+      </c>
+      <c r="O7" s="25">
+        <f>O6*S4</f>
+        <v>500.62222222222221</v>
+      </c>
+      <c r="P7" s="25">
+        <f>P9</f>
+        <v>502.85714285714283</v>
+      </c>
+      <c r="R7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="23">
         <f>6/5</f>
         <v>1.2</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="X7" s="22" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AF7" s="22" t="s">
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="B8" s="25">
+        <f>B10</f>
+        <v>528</v>
+      </c>
+      <c r="C8" s="25">
+        <f>C13*S15/2</f>
+        <v>513.33333333333326</v>
+      </c>
+      <c r="D8" s="25">
+        <f>D16*S13/2</f>
+        <v>528</v>
+      </c>
+      <c r="E8" s="25">
+        <f>E20*S10/2</f>
+        <v>515.625</v>
+      </c>
+      <c r="F8" s="25">
+        <f>F10</f>
+        <v>521.48148148148141</v>
+      </c>
+      <c r="G8" s="25">
+        <f>B4*S7</f>
+        <v>528</v>
+      </c>
+      <c r="H8" s="25">
+        <f>H7*S4</f>
+        <v>521.48148148148141</v>
+      </c>
+      <c r="I8" s="25">
         <f>I11*S18/2</f>
         <v>515.625</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="R8" s="22" t="s">
+      <c r="J8" s="25">
+        <f>J12*S16/2</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="K8" s="25">
+        <f>K10</f>
+        <v>521.48148148148152</v>
+      </c>
+      <c r="L8" s="25">
+        <f>L19*S11/2</f>
+        <v>500.62222222222226</v>
+      </c>
+      <c r="M8" s="25">
+        <f>M21*S10/2</f>
+        <v>515.625</v>
+      </c>
+      <c r="N8" s="25">
+        <f>N10</f>
+        <v>515.625</v>
+      </c>
+      <c r="O8" s="25">
+        <f>O6*S5</f>
+        <v>521.48148148148152</v>
+      </c>
+      <c r="P8" s="25">
+        <f>P9*S4</f>
+        <v>536.38095238095229</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="10">
         <f>5/4</f>
         <v>1.25</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="B9" s="25">
+        <f>B10*S18/2</f>
+        <v>495</v>
+      </c>
+      <c r="C9" s="25">
+        <f>C13*S16/2</f>
+        <v>521.48148148148141</v>
+      </c>
+      <c r="D9" s="25">
+        <f>D7</f>
+        <v>495</v>
+      </c>
+      <c r="E9" s="25">
+        <f>E8</f>
+        <v>515.625</v>
+      </c>
+      <c r="F9" s="25">
+        <f>F7</f>
+        <v>488.88888888888886</v>
+      </c>
+      <c r="G9" s="25">
+        <f>G7</f>
+        <v>495</v>
+      </c>
+      <c r="H9" s="25">
+        <f>H8</f>
+        <v>521.48148148148141</v>
+      </c>
+      <c r="I9" s="25">
+        <f>I7</f>
+        <v>495</v>
+      </c>
+      <c r="J9" s="25">
+        <f>J12*S17/2</f>
+        <v>495</v>
+      </c>
+      <c r="K9" s="25">
+        <f>K7</f>
+        <v>500.62222222222226</v>
+      </c>
+      <c r="L9" s="25">
+        <f>L8</f>
+        <v>500.62222222222226</v>
+      </c>
+      <c r="M9" s="25">
         <f>M21*S9/2</f>
         <v>488.88888888888891</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9">
+      <c r="N9" s="25">
+        <f>N7</f>
+        <v>495</v>
+      </c>
+      <c r="O9" s="25">
+        <f>O8</f>
+        <v>521.48148148148152</v>
+      </c>
+      <c r="P9" s="26">
         <f>(B4/S15)*2</f>
         <v>502.85714285714283</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="10">
         <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="22" t="s">
+      <c r="W9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="26">
         <f>(B4/S14)*2</f>
         <v>528</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="C10" s="27">
+        <f>C13*S17/2</f>
+        <v>528</v>
+      </c>
+      <c r="D10" s="28">
+        <f>D8</f>
+        <v>528</v>
+      </c>
+      <c r="E10" s="28">
+        <f>E20*S11/2</f>
+        <v>521.48148148148152</v>
+      </c>
+      <c r="F10" s="28">
         <f>F22*S9/2</f>
         <v>521.48148148148141</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="G10" s="25">
+        <f>G8</f>
+        <v>528</v>
+      </c>
+      <c r="H10" s="28">
+        <f>H7*S5</f>
+        <v>543.20987654320982</v>
+      </c>
+      <c r="I10" s="28">
+        <f>I8</f>
+        <v>515.625</v>
+      </c>
+      <c r="J10" s="28">
         <f>J12*S18/2</f>
         <v>515.625</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="28">
         <f>K15*S14/2</f>
         <v>521.48148148148152</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="28">
         <f>L19*S12/2</f>
         <v>528</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
+      <c r="M10" s="28">
+        <f>M8</f>
+        <v>515.625</v>
+      </c>
+      <c r="N10" s="28">
         <f>N3*S8</f>
         <v>515.625</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="28">
         <f>O5*S6</f>
         <v>528</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="R10" t="s">
+      <c r="P10" s="28">
+        <f>P8</f>
+        <v>536.38095238095229</v>
+      </c>
+      <c r="R10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="23">
         <f>45/32</f>
         <v>1.40625</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="AD10" s="22" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="28">
+        <f>B10*S4</f>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="C11" s="28">
         <f>C13*S18/2</f>
         <v>550</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="28">
         <f>D16*S14/2</f>
         <v>550</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="28">
         <f>E20*S12/2</f>
         <v>550</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2">
+      <c r="F11" s="28">
+        <f>F22*S10/2</f>
+        <v>550</v>
+      </c>
+      <c r="G11" s="25">
         <f>B4*S8</f>
         <v>550</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="28">
         <f>H7*S6</f>
         <v>550</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="26">
         <f>(B4/S13)*2</f>
         <v>550</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" t="s">
+      <c r="J11" s="27">
+        <f>J12</f>
+        <v>550</v>
+      </c>
+      <c r="K11" s="28">
+        <f>K15*S15/2</f>
+        <v>547.55555555555566</v>
+      </c>
+      <c r="L11" s="28">
+        <f>L19*S13/2</f>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="M11" s="28">
+        <f>M21*S11/2</f>
+        <v>521.48148148148152</v>
+      </c>
+      <c r="N11" s="28">
+        <f>N12</f>
+        <v>550</v>
+      </c>
+      <c r="O11" s="28">
+        <f>O6*S7</f>
+        <v>563.19999999999993</v>
+      </c>
+      <c r="P11" s="28">
+        <f>P9*S5</f>
+        <v>558.73015873015868</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="23">
         <f>64/45</f>
         <v>1.4222222222222223</v>
       </c>
-      <c r="T11" s="22"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="T11" s="9"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="9">
+      <c r="B12" s="28">
+        <f>B10*S5</f>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="C12" s="28">
+        <f>C11</f>
+        <v>550</v>
+      </c>
+      <c r="D12" s="28">
+        <f>D16*S16/2</f>
+        <v>586.66666666666663</v>
+      </c>
+      <c r="E12" s="28">
+        <f>E11</f>
+        <v>550</v>
+      </c>
+      <c r="F12" s="28">
+        <f>F22*S11/2</f>
+        <v>556.24691358024688</v>
+      </c>
+      <c r="G12" s="25">
+        <f>G11</f>
+        <v>550</v>
+      </c>
+      <c r="H12" s="28">
+        <f>H11</f>
+        <v>550</v>
+      </c>
+      <c r="I12" s="28">
+        <f>I11*S4</f>
+        <v>586.66666666666663</v>
+      </c>
+      <c r="J12" s="26">
         <f>(B4/S13)*2</f>
         <v>550</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="K12" s="28">
+        <f>K15*S17/2</f>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="L12" s="28">
+        <f>L11</f>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="M12" s="28">
         <f>M21*S12/2</f>
         <v>550</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="28">
         <f>N3*S9</f>
         <v>550</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="O12" s="28">
+        <f>O11</f>
+        <v>563.19999999999993</v>
+      </c>
+      <c r="P12" s="28">
         <f>P9*S6</f>
         <v>565.71428571428567</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="10">
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="22" t="s">
+      <c r="V12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="28">
         <f>B10*S6</f>
         <v>594</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="26">
         <f>(B4/S12)*2</f>
         <v>586.66666666666663</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="D13" s="28">
+        <f>D16*S17/2</f>
+        <v>594</v>
+      </c>
+      <c r="E13" s="28">
+        <f>E20*S13/2</f>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="F13" s="28">
         <f>F22*S12/2</f>
         <v>586.66666666666663</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="25">
         <f>B4*S9</f>
         <v>586.66666666666663</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="H13" s="28">
+        <f>H7*S7</f>
+        <v>586.66666666666663</v>
+      </c>
+      <c r="I13" s="28">
+        <f>I11*S5</f>
+        <v>611.11111111111109</v>
+      </c>
+      <c r="J13" s="28">
+        <f>J12*S4</f>
+        <v>586.66666666666663</v>
+      </c>
+      <c r="K13" s="28">
         <f>K15*S18/2</f>
         <v>586.66666666666674</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="28">
         <f>L19*S14/2</f>
         <v>586.66666666666674</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
+      <c r="M13" s="28">
+        <f>M21*S13/2</f>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="N13" s="28">
+        <f>N3*S10</f>
+        <v>580.078125</v>
+      </c>
+      <c r="O13" s="28">
         <f>O5*S8</f>
         <v>586.66666666666663</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="R13" t="s">
+      <c r="P13" s="28">
+        <f>P9*S7</f>
+        <v>603.42857142857133</v>
+      </c>
+      <c r="R13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="23">
         <f>8/5</f>
         <v>1.6</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="AB13" s="22" t="s">
+      <c r="T13" s="9"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AC13" s="22" t="s">
+      <c r="AC13" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="B14" s="28">
+        <f>B10*S7</f>
+        <v>633.6</v>
+      </c>
+      <c r="C14" s="28">
+        <f>C13*S4</f>
+        <v>625.77777777777771</v>
+      </c>
+      <c r="D14" s="28">
         <f>D16*S18/2</f>
         <v>618.75</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="28">
         <f>E20*S14/2</f>
         <v>611.1111111111112</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3">
+      <c r="F14" s="28">
+        <f>F22*S13/2</f>
+        <v>625.77777777777783</v>
+      </c>
+      <c r="G14" s="25">
+        <f>B4*S10</f>
+        <v>618.75</v>
+      </c>
+      <c r="H14" s="28">
         <f>H7*S8</f>
         <v>611.11111111111109</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="28">
         <f>I11*S6</f>
         <v>618.75</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="22" t="s">
+      <c r="J14" s="28">
+        <f>J12*S5</f>
+        <v>611.11111111111109</v>
+      </c>
+      <c r="K14" s="28">
+        <f>K15</f>
+        <v>625.77777777777783</v>
+      </c>
+      <c r="L14" s="28">
+        <f>L19*S15/2</f>
+        <v>616</v>
+      </c>
+      <c r="M14" s="28">
+        <f>M15</f>
+        <v>611.1111111111112</v>
+      </c>
+      <c r="N14" s="28">
+        <f>N3*S11</f>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="O14" s="28">
+        <f>O15</f>
+        <v>625.77777777777771</v>
+      </c>
+      <c r="P14" s="28">
+        <f>P15</f>
+        <v>628.57142857142856</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="10">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="U14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI14" s="22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="B15" s="28">
+        <f>B14</f>
+        <v>633.6</v>
+      </c>
+      <c r="C15" s="28">
+        <f>C13*S5</f>
+        <v>651.85185185185185</v>
+      </c>
+      <c r="D15" s="28">
+        <f>D16*S18/2</f>
+        <v>618.75</v>
+      </c>
+      <c r="E15" s="28">
+        <f>E20*S16/2</f>
+        <v>651.85185185185185</v>
+      </c>
+      <c r="F15" s="28">
+        <f>F14</f>
+        <v>625.77777777777783</v>
+      </c>
+      <c r="G15" s="25">
+        <f>B4*S11</f>
+        <v>625.77777777777783</v>
+      </c>
+      <c r="H15" s="28">
+        <f>H14</f>
+        <v>611.11111111111109</v>
+      </c>
+      <c r="I15" s="28">
+        <f>I14</f>
+        <v>618.75</v>
+      </c>
+      <c r="J15" s="28">
         <f>J12*S6</f>
         <v>618.75</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="26">
         <f>(B4/S10)*2</f>
         <v>625.77777777777783</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
+      <c r="L15" s="28">
+        <f>L19*S17/2</f>
+        <v>633.6</v>
+      </c>
+      <c r="M15" s="28">
         <f>M21*S14/2</f>
         <v>611.1111111111112</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="28">
         <f>N3*S12</f>
         <v>618.75</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="28">
         <f>O5*S9</f>
         <v>625.77777777777771</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="28">
         <f>P9*S8</f>
         <v>628.57142857142856</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="23">
         <f>7/4</f>
         <v>1.75</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="AI15" s="22" t="s">
+      <c r="T15" s="9"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="28">
         <f>B10*S8</f>
         <v>660</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="28">
         <f>C13*S6</f>
         <v>660</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="26">
         <f>(B4/S9)*2</f>
         <v>660</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
+      <c r="E16" s="28">
+        <f>E20*S17/2</f>
+        <v>660</v>
+      </c>
+      <c r="F16" s="28">
         <f>F22*S14/2</f>
         <v>651.85185185185185</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="25">
         <f>B4*S12</f>
         <v>660</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="28">
         <f>H7*S9</f>
         <v>651.85185185185173</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
+      <c r="I16" s="28">
+        <f>I11*S7</f>
+        <v>660</v>
+      </c>
+      <c r="J16" s="28">
+        <f>J12*S7</f>
+        <v>660</v>
+      </c>
+      <c r="K16" s="28">
+        <f>K15*S4</f>
+        <v>667.49629629629635</v>
+      </c>
+      <c r="L16" s="28">
         <f>L19*S18/2</f>
         <v>660</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" t="s">
+      <c r="M16" s="28">
+        <f>M21*S15/2</f>
+        <v>641.66666666666674</v>
+      </c>
+      <c r="N16" s="28">
+        <f>N3*S13</f>
+        <v>660</v>
+      </c>
+      <c r="O16" s="28">
+        <f>O6*S10</f>
+        <v>660</v>
+      </c>
+      <c r="P16" s="28">
+        <f>P18</f>
+        <v>670.47619047619037</v>
+      </c>
+      <c r="R16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="23">
         <f>16/9</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="T16" s="22"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="T16" s="9"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3">
+      <c r="B17" s="28">
+        <f>B19</f>
+        <v>704</v>
+      </c>
+      <c r="C17" s="28">
+        <f>C13*S7</f>
+        <v>703.99999999999989</v>
+      </c>
+      <c r="D17" s="25">
+        <f>D16*S4</f>
+        <v>704</v>
+      </c>
+      <c r="E17" s="28">
         <f>E20*S18/2</f>
         <v>687.5</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="F17" s="28">
+        <f>F22*S15/2</f>
+        <v>684.44444444444434</v>
+      </c>
+      <c r="G17" s="25">
+        <f>B4*S13</f>
+        <v>704</v>
+      </c>
+      <c r="H17" s="28">
+        <f>H7*S10</f>
+        <v>687.5</v>
+      </c>
+      <c r="I17" s="28">
         <f>I11*S8</f>
         <v>687.5</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" t="s">
+      <c r="J17" s="28">
+        <f>J19</f>
+        <v>687.5</v>
+      </c>
+      <c r="K17" s="28">
+        <f>K15*S5</f>
+        <v>695.30864197530877</v>
+      </c>
+      <c r="L17" s="28">
+        <f>L19</f>
+        <v>704</v>
+      </c>
+      <c r="M17" s="28">
+        <f>M21*S16/2</f>
+        <v>651.85185185185185</v>
+      </c>
+      <c r="N17" s="28">
+        <f>N19</f>
+        <v>687.5</v>
+      </c>
+      <c r="O17" s="28">
+        <f>O6*S11</f>
+        <v>667.49629629629635</v>
+      </c>
+      <c r="P17" s="28">
+        <f>P9*S10</f>
+        <v>707.14285714285711</v>
+      </c>
+      <c r="R17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="23">
         <f>9/5</f>
         <v>1.8</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="AA17" s="22" t="s">
+      <c r="T17" s="9"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3">
+      <c r="B18" s="28">
+        <f>B16</f>
+        <v>660</v>
+      </c>
+      <c r="C18" s="28">
+        <f>C16</f>
+        <v>660</v>
+      </c>
+      <c r="D18" s="25">
+        <f>D17</f>
+        <v>704</v>
+      </c>
+      <c r="E18" s="28">
+        <f>E16</f>
+        <v>660</v>
+      </c>
+      <c r="F18" s="28">
+        <f>F22*S16/2</f>
+        <v>695.30864197530855</v>
+      </c>
+      <c r="G18" s="25">
+        <f>G16</f>
+        <v>660</v>
+      </c>
+      <c r="H18" s="28">
+        <f>H17</f>
+        <v>687.5</v>
+      </c>
+      <c r="I18" s="28">
+        <f>I16</f>
+        <v>660</v>
+      </c>
+      <c r="J18" s="28">
+        <f>J16</f>
+        <v>660</v>
+      </c>
+      <c r="K18" s="28">
+        <f>K17</f>
+        <v>695.30864197530877</v>
+      </c>
+      <c r="L18" s="28">
+        <f>L16</f>
+        <v>660</v>
+      </c>
+      <c r="M18" s="28">
+        <f>M21*S17/2</f>
+        <v>660</v>
+      </c>
+      <c r="N18" s="28">
+        <f>N16</f>
+        <v>660</v>
+      </c>
+      <c r="O18" s="28">
+        <f>O17</f>
+        <v>667.49629629629635</v>
+      </c>
+      <c r="P18" s="28">
         <f>P9*S9</f>
         <v>670.47619047619037</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="10">
         <f>15/8</f>
         <v>1.875</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AH18" s="22" t="s">
+      <c r="AH18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AI18" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="28">
         <f>B10*S9</f>
         <v>704</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
+      <c r="C19" s="28">
+        <f>C17</f>
+        <v>703.99999999999989</v>
+      </c>
+      <c r="D19" s="28">
+        <f>D16*S5</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="E19" s="28">
+        <f>E17</f>
+        <v>687.5</v>
+      </c>
+      <c r="F19" s="28">
+        <f>F22*S17/2</f>
+        <v>704</v>
+      </c>
+      <c r="G19" s="25">
+        <f>G17</f>
+        <v>704</v>
+      </c>
+      <c r="H19" s="28">
+        <f>H7*S11</f>
+        <v>695.30864197530866</v>
+      </c>
+      <c r="I19" s="28">
+        <f>I17</f>
+        <v>687.5</v>
+      </c>
+      <c r="J19" s="28">
         <f>J12*S8</f>
         <v>687.5</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="28">
         <f>K15*S6</f>
         <v>704</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="26">
         <f>(B4/S8)*2</f>
         <v>704</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="28">
         <f>M21*S18/2</f>
         <v>687.5</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="28">
         <f>N3*S14</f>
         <v>687.5</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="28">
         <f>O5*S12</f>
         <v>704</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="R19" s="22" t="s">
+      <c r="P19" s="28">
+        <f>P17</f>
+        <v>707.14285714285711</v>
+      </c>
+      <c r="R19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="10">
         <v>2</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AH19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AI19" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="B20" s="28">
+        <f>B10*S10</f>
+        <v>742.5</v>
+      </c>
+      <c r="C20" s="28">
         <f>C13*S8</f>
         <v>733.33333333333326</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="28">
         <f>D16*S6</f>
         <v>742.5</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="26">
         <f>(B4/S7)*2</f>
         <v>733.33333333333337</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="28">
         <f>F22*S18/2</f>
         <v>733.33333333333326</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="28">
         <f>B4*S14</f>
         <v>733.33333333333337</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="28">
         <f>H7*S12</f>
         <v>733.33333333333326</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="28">
         <f>I11*S9</f>
         <v>733.33333333333326</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J20" s="28">
+        <f>J21</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="K20" s="28">
+        <f>K15*S7</f>
+        <v>750.93333333333339</v>
+      </c>
+      <c r="L20" s="28">
+        <f>L19*S4</f>
+        <v>750.93333333333328</v>
+      </c>
+      <c r="M20" s="28">
+        <f>M21</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="N20" s="28">
+        <f>N3*S15</f>
+        <v>721.875</v>
+      </c>
+      <c r="O20" s="28">
+        <f>O6*S13</f>
+        <v>750.93333333333339</v>
+      </c>
+      <c r="P20" s="28">
+        <f>P9*S11</f>
+        <v>715.17460317460313</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="B21" s="28">
+        <f>B10*S11</f>
+        <v>750.93333333333339</v>
+      </c>
+      <c r="C21" s="28">
+        <f>C20</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="D21" s="28">
+        <f>D20</f>
+        <v>742.5</v>
+      </c>
+      <c r="E21" s="28">
+        <f>E20*S4</f>
+        <v>782.22222222222229</v>
+      </c>
+      <c r="F21" s="28">
+        <f>F20</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="G21" s="28">
+        <f>B4*S16</f>
+        <v>782.22222222222217</v>
+      </c>
+      <c r="H21" s="28">
+        <f>H20</f>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="I21" s="28">
+        <f>I11*S10</f>
+        <v>773.4375</v>
+      </c>
+      <c r="J21" s="28">
         <f>J12*S9</f>
         <v>733.33333333333326</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="9">
+      <c r="K21" s="28">
+        <f>K20</f>
+        <v>750.93333333333339</v>
+      </c>
+      <c r="L21" s="28">
+        <f>L19*S5</f>
+        <v>782.22222222222229</v>
+      </c>
+      <c r="M21" s="26">
         <f>(B4/S7)*2</f>
         <v>733.33333333333337</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3">
+      <c r="N21" s="28">
+        <f>N3*S17</f>
+        <v>742.5</v>
+      </c>
+      <c r="O21" s="28">
+        <f>O20</f>
+        <v>750.93333333333339</v>
+      </c>
+      <c r="P21" s="28">
         <f>P9*S12</f>
         <v>754.28571428571422</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="28">
         <f>B10*S12</f>
         <v>792</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="28">
         <f>C13*S9</f>
         <v>782.22222222222217</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="9">
+      <c r="D22" s="28">
+        <f>D16*S7</f>
+        <v>792</v>
+      </c>
+      <c r="E22" s="28">
+        <f>E20*S5</f>
+        <v>814.81481481481489</v>
+      </c>
+      <c r="F22" s="26">
         <f>(B4/S6)*2</f>
         <v>782.22222222222217</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="G22" s="28">
+        <f>B4*S17</f>
+        <v>792</v>
+      </c>
+      <c r="H22" s="28">
+        <f>H7*S13</f>
+        <v>782.22222222222217</v>
+      </c>
+      <c r="I22" s="28">
+        <f>I11*S11</f>
+        <v>782.22222222222229</v>
+      </c>
+      <c r="J22" s="28">
+        <f>J12*S10</f>
+        <v>773.4375</v>
+      </c>
+      <c r="K22" s="28">
         <f>K15*S8</f>
         <v>782.22222222222229</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="28">
         <f>L19*S6</f>
         <v>792</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3">
+      <c r="M22" s="28">
+        <f>M21*S4</f>
+        <v>782.22222222222229</v>
+      </c>
+      <c r="N22" s="28">
         <f>N3*S18</f>
         <v>773.4375</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="28">
         <f>O5*S14</f>
         <v>782.22222222222217</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P22" s="28">
+        <f>P9*S13</f>
+        <v>804.57142857142856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="B23" s="28">
+        <f>B10*S13</f>
+        <v>844.80000000000007</v>
+      </c>
+      <c r="C23" s="28">
+        <f>C13*S10</f>
+        <v>825</v>
+      </c>
+      <c r="D23" s="28">
         <f>D16*S8</f>
         <v>825</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="28">
         <f>E20*S6</f>
         <v>825</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="F23" s="28">
+        <f>F22*S4</f>
+        <v>834.37037037037032</v>
+      </c>
+      <c r="G23" s="28">
         <f>B4*S18</f>
         <v>825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="28">
         <f>H7*S14</f>
         <v>814.81481481481478</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="28">
         <f>I11*S12</f>
         <v>825</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="J23" s="28">
+        <f>J12*S11</f>
+        <v>782.22222222222229</v>
+      </c>
+      <c r="K23" s="28">
+        <f>K3*2</f>
+        <v>834.37037037037044</v>
+      </c>
+      <c r="L23" s="28">
+        <f>L3*2</f>
+        <v>844.8</v>
+      </c>
+      <c r="M23" s="28">
+        <f>M21*S5</f>
+        <v>814.81481481481489</v>
+      </c>
+      <c r="N23" s="28">
+        <f>N3*2</f>
+        <v>825</v>
+      </c>
+      <c r="O23" s="28">
+        <f>O6*S15</f>
+        <v>821.33333333333326</v>
+      </c>
+      <c r="P23" s="28">
+        <f>P3*2</f>
+        <v>838.09523809523807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2153,322 +3010,328 @@
       <c r="P26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="16">
         <v>440</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <f>B27*(2^(1/12))</f>
         <v>466.16376151808993</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="13"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <f t="shared" ref="B29:B38" si="0">B28*(2^(1/12))</f>
         <v>493.88330125612413</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="17"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="13"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>523.25113060119736</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
-      <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="13"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="11">
         <f t="shared" si="0"/>
         <v>554.36526195374427</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="11">
         <f t="shared" si="0"/>
         <v>587.32953583481526</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="17"/>
-      <c r="R32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <f t="shared" si="0"/>
         <v>622.25396744416196</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="17"/>
-      <c r="R33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="13"/>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="11">
         <f t="shared" si="0"/>
         <v>659.25511382574007</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="17"/>
-      <c r="R34" s="5"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="11">
         <f t="shared" si="0"/>
         <v>698.456462866008</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="17"/>
-      <c r="R35" s="5"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13"/>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="11">
         <f t="shared" si="0"/>
         <v>739.98884542326903</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="17"/>
-      <c r="R36" s="5"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="13"/>
+      <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="11">
         <f t="shared" si="0"/>
         <v>783.99087196349888</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="17"/>
-      <c r="R37" s="5"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="13"/>
+      <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="11">
         <f t="shared" si="0"/>
         <v>830.6093951598906</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
-      <c r="R38" s="5"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="13"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="R39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" ht="29.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B4:P4"/>
     <mergeCell ref="B35:P35"/>
     <mergeCell ref="B36:P36"/>
     <mergeCell ref="B37:P37"/>
@@ -2478,12 +3341,6 @@
     <mergeCell ref="B32:P32"/>
     <mergeCell ref="B33:P33"/>
     <mergeCell ref="B34:P34"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
